--- a/data/Board Game Night.xlsx
+++ b/data/Board Game Night.xlsx
@@ -32,7 +32,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>How old are you?</t>
+    <t>Age</t>
   </si>
   <si>
     <t>Child</t>
@@ -3373,8 +3373,8 @@
   <sheetPr/>
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
